--- a/biology/Zoologie/Fereuungulata/Fereuungulata.xlsx
+++ b/biology/Zoologie/Fereuungulata/Fereuungulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fereuungulata sont un clade hypothétique de mammifères parmi les laurasiathériens. Il est constitué des cinq ordres suivants et de leurs ancêtres communs :
 			Artiodactyla
@@ -488,9 +500,9 @@
 			Cetacea
 			Perissodactyla
 			Pholidota
-Ce regroupement est basé sur des éléments de phylogénie moléculaire[1],[2]
+Ce regroupement est basé sur des éléments de phylogénie moléculaire,
 En son sein, Carnivora et Pholidota forment le clade des Ferae tandis que Cetacea et Artiodactyla forment les Cetartiodactyla. L'emplacement des Perissodactyla est incertain : un regroupement avec les Ferae a été proposé, formant le clade Zoomata, de même qu'un regroupement avec Cetartiodactyla formant le clade des Euungulata.
-Phylogénie des ordres actuels de laurasiathériens, d'après Zhou et al., 2011[3] :
+Phylogénie des ordres actuels de laurasiathériens, d'après Zhou et al., 2011 :
 </t>
         </is>
       </c>
